--- a/VTigerCRM/src/test/resources/sdet37TestData.xlsx
+++ b/VTigerCRM/src/test/resources/sdet37TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="17220" windowHeight="5328" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="132" windowWidth="17220" windowHeight="5328"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>TestID</t>
   </si>
@@ -64,16 +64,48 @@
   </si>
   <si>
     <t>Administrator - Organizations - vtiger CRM 5 - Commercial Open Source CRM</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>IndustryType</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>gayathridayalan.ece@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,16 +128,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,14 +442,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -424,10 +460,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
       <c r="E1" t="s">
         <v>3</v>
       </c>
@@ -470,21 +506,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +537,20 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -517,8 +566,23 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
